--- a/Mifos Automation Excels/Client/2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT-Newcreateloan1.xlsx
@@ -215,7 +215,7 @@
     <t>Repayment (at time of disbursement)</t>
   </si>
   <si>
-    <t>2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT</t>
+    <t>2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT-1st</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mifos Automation Excels/Client/2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT-Newcreateloan1.xlsx
@@ -215,7 +215,7 @@
     <t>Repayment (at time of disbursement)</t>
   </si>
   <si>
-    <t>2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT-1st</t>
+    <t>2587-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-DISBURSE-FEE-FLAT</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
